--- a/USE with BN_self ref.xlsx
+++ b/USE with BN_self ref.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolyn/MyGit/scoop-restructured/dev/dev-20200603/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D1A347-D269-5845-B65A-87C33B0BFC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89E5E21-08FD-894F-8760-232B8B75913A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="37480" windowHeight="21140" activeTab="1" xr2:uid="{2156805F-12A5-A046-85C8-24C223062789}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="37480" windowHeight="21140" xr2:uid="{2156805F-12A5-A046-85C8-24C223062789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>data</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>USE with BatchNormalization</t>
+  </si>
+  <si>
+    <t>large dataset</t>
   </si>
 </sst>
 </file>
@@ -284,6 +287,50 @@
         <a:xfrm>
           <a:off x="15570200" y="4076700"/>
           <a:ext cx="11315700" cy="8064500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE35DAD-A22D-AB47-97D1-94F2A031D37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="11379200"/>
+          <a:ext cx="11404600" cy="8001000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79928AE2-3FA1-9546-A305-D699F0BD2814}">
-  <dimension ref="D5:X14"/>
+  <dimension ref="D5:X56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E13"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,6 +884,11 @@
       </c>
       <c r="X14" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C1CF30-23AA-E04E-BC2E-A97E1303AC25}">
   <dimension ref="C3:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/USE with BN_self ref.xlsx
+++ b/USE with BN_self ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolyn/MyGit/scoop-restructured/dev/dev-20200603/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89E5E21-08FD-894F-8760-232B8B75913A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68064CDD-C07B-674A-B7E9-17EEA3D153C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="37480" windowHeight="21140" xr2:uid="{2156805F-12A5-A046-85C8-24C223062789}"/>
   </bookViews>
@@ -210,16 +210,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -236,13 +236,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="11024" b="7402"/>
+        <a:srcRect t="-472" b="-156"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565400" y="3263900"/>
-          <a:ext cx="11264900" cy="6578600"/>
+          <a:off x="2273300" y="2882900"/>
+          <a:ext cx="11264900" cy="8115300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,15 +254,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,7 +285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15570200" y="4076700"/>
+          <a:off x="15240000" y="3225800"/>
           <a:ext cx="11315700" cy="8064500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -331,6 +331,50 @@
         <a:xfrm>
           <a:off x="2476500" y="11379200"/>
           <a:ext cx="11404600" cy="8001000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F13C1591-1AEF-F646-9547-396D92A7D1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15684500" y="11785600"/>
+          <a:ext cx="11290300" cy="8039100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79928AE2-3FA1-9546-A305-D699F0BD2814}">
   <dimension ref="D5:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
